--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AA38D3-017A-4CF5-BC0D-F06430EB8DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4168ED1-9609-44CE-BF49-36862D746C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,31 +120,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,19 +441,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -462,33 +461,33 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>44492</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>44492</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -496,42 +495,29 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>45228</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4168ED1-9609-44CE-BF49-36862D746C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA766E21-CA9F-4853-A466-613593A86D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,15 +509,43 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kridd\GitHub\univer\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA766E21-CA9F-4853-A466-613593A86D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027B1A9-39E4-4A90-AD83-E4CB43B4D935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,11 +116,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -128,22 +143,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +451,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,70 +480,82 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="8">
         <v>44492</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>45228</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
